--- a/Code/Results/Cases/Case_0_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_142/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.013254219472888</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.015233416566225</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.014571428868871</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.011543706876185</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.018492244406898</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.018089187164594</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.017429181393908</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.014410560138833</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.019938620216649</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.017526277394852</v>
+      </c>
+      <c r="D3">
+        <v>1.01918418603267</v>
+      </c>
+      <c r="E3">
+        <v>1.018346201700984</v>
+      </c>
+      <c r="F3">
+        <v>1.016516036653311</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.022380808477849</v>
+      </c>
+      <c r="K3">
+        <v>1.021836376609419</v>
+      </c>
+      <c r="L3">
+        <v>1.021000703916664</v>
+      </c>
+      <c r="M3">
+        <v>1.019175601869855</v>
+      </c>
+      <c r="N3">
+        <v>1.023832706494605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.020253919938418</v>
+      </c>
+      <c r="D4">
+        <v>1.021705680040495</v>
+      </c>
+      <c r="E4">
+        <v>1.020754809691669</v>
+      </c>
+      <c r="F4">
+        <v>1.019693080350475</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.024861524255708</v>
+      </c>
+      <c r="K4">
+        <v>1.024226339330528</v>
+      </c>
+      <c r="L4">
+        <v>1.023277949288658</v>
+      </c>
+      <c r="M4">
+        <v>1.02221899532814</v>
+      </c>
+      <c r="N4">
+        <v>1.02631694517341</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.021392170485543</v>
+      </c>
+      <c r="D5">
+        <v>1.022757659697712</v>
+      </c>
+      <c r="E5">
+        <v>1.021759557189376</v>
+      </c>
+      <c r="F5">
+        <v>1.021019425131858</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.02589623534338</v>
+      </c>
+      <c r="K5">
+        <v>1.02522306138338</v>
+      </c>
+      <c r="L5">
+        <v>1.024227499888175</v>
+      </c>
+      <c r="M5">
+        <v>1.023489255549902</v>
+      </c>
+      <c r="N5">
+        <v>1.02735312566951</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.02158280150014</v>
+      </c>
+      <c r="D6">
+        <v>1.022933827866847</v>
+      </c>
+      <c r="E6">
+        <v>1.021927807697762</v>
+      </c>
+      <c r="F6">
+        <v>1.02124159070053</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.026069496712348</v>
+      </c>
+      <c r="K6">
+        <v>1.025389953527797</v>
+      </c>
+      <c r="L6">
+        <v>1.024386483980381</v>
+      </c>
+      <c r="M6">
+        <v>1.023702009896631</v>
+      </c>
+      <c r="N6">
+        <v>1.027526633089495</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.020269162077683</v>
+      </c>
+      <c r="D7">
+        <v>1.021719767907252</v>
+      </c>
+      <c r="E7">
+        <v>1.020768265572548</v>
+      </c>
+      <c r="F7">
+        <v>1.01971083901757</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.024875381870721</v>
+      </c>
+      <c r="K7">
+        <v>1.024239688704776</v>
+      </c>
+      <c r="L7">
+        <v>1.023290667527637</v>
+      </c>
+      <c r="M7">
+        <v>1.022236004206215</v>
+      </c>
+      <c r="N7">
+        <v>1.026330822467827</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.014705774304136</v>
+      </c>
+      <c r="D8">
+        <v>1.016576013946648</v>
+      </c>
+      <c r="E8">
+        <v>1.015854333091531</v>
+      </c>
+      <c r="F8">
+        <v>1.013232727489909</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.01981392884433</v>
+      </c>
+      <c r="K8">
+        <v>1.01936293683253</v>
+      </c>
+      <c r="L8">
+        <v>1.018643358887564</v>
+      </c>
+      <c r="M8">
+        <v>1.016029419816013</v>
+      </c>
+      <c r="N8">
+        <v>1.021262181597582</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1.004606198849172</v>
+      </c>
+      <c r="D9">
+        <v>1.007230399972694</v>
+      </c>
+      <c r="E9">
+        <v>1.006921940079454</v>
+      </c>
+      <c r="F9">
+        <v>1.001490106524701</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.010609262367761</v>
+      </c>
+      <c r="K9">
+        <v>1.010489775443773</v>
+      </c>
+      <c r="L9">
+        <v>1.010182386364817</v>
+      </c>
+      <c r="M9">
+        <v>1.004769528409908</v>
+      </c>
+      <c r="N9">
+        <v>1.012044443438826</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.9976514621185645</v>
+      </c>
+      <c r="D10">
+        <v>1.000789731151223</v>
+      </c>
+      <c r="E10">
+        <v>1.000763208523579</v>
+      </c>
+      <c r="F10">
+        <v>0.9934150868771167</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.004259756059919</v>
+      </c>
+      <c r="K10">
+        <v>1.004366036320006</v>
+      </c>
+      <c r="L10">
+        <v>1.004339615993167</v>
+      </c>
+      <c r="M10">
+        <v>0.9970200706073147</v>
+      </c>
+      <c r="N10">
+        <v>1.005685920103728</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9945820415727451</v>
+      </c>
+      <c r="D11">
+        <v>0.997946015352718</v>
+      </c>
+      <c r="E11">
+        <v>0.9980433232530915</v>
+      </c>
+      <c r="F11">
+        <v>0.9898537163031825</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.001454834488332</v>
+      </c>
+      <c r="K11">
+        <v>1.001660171940656</v>
+      </c>
+      <c r="L11">
+        <v>1.001757087899813</v>
+      </c>
+      <c r="M11">
+        <v>0.9936007680487441</v>
+      </c>
+      <c r="N11">
+        <v>1.002877015221781</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9934327260602446</v>
+      </c>
+      <c r="D12">
+        <v>0.9968810399351408</v>
+      </c>
+      <c r="E12">
+        <v>0.9970246266072211</v>
+      </c>
+      <c r="F12">
+        <v>0.9885205519560839</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.000404165382902</v>
+      </c>
+      <c r="K12">
+        <v>1.000646507384683</v>
+      </c>
+      <c r="L12">
+        <v>1.000789506519077</v>
+      </c>
+      <c r="M12">
+        <v>0.9923205579334183</v>
+      </c>
+      <c r="N12">
+        <v>1.001824854045707</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9936796823985866</v>
+      </c>
+      <c r="D13">
+        <v>0.9971098816584301</v>
+      </c>
+      <c r="E13">
+        <v>0.9972435282592418</v>
+      </c>
+      <c r="F13">
+        <v>0.9888069964669737</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.000629943066427</v>
+      </c>
+      <c r="K13">
+        <v>1.00086433769607</v>
+      </c>
+      <c r="L13">
+        <v>1.000997439271765</v>
+      </c>
+      <c r="M13">
+        <v>0.9925956349455358</v>
+      </c>
+      <c r="N13">
+        <v>1.00205095235944</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.9944872293013163</v>
+      </c>
+      <c r="D14">
+        <v>0.9978581641764932</v>
+      </c>
+      <c r="E14">
+        <v>0.9979592916115306</v>
+      </c>
+      <c r="F14">
+        <v>0.9897437303263481</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.001368167998523</v>
+      </c>
+      <c r="K14">
+        <v>1.001576559877292</v>
+      </c>
+      <c r="L14">
+        <v>1.001677279452714</v>
+      </c>
+      <c r="M14">
+        <v>0.9934951554212327</v>
+      </c>
+      <c r="N14">
+        <v>1.002790225655616</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.994983552016784</v>
+      </c>
+      <c r="D15">
+        <v>0.9983180399560859</v>
+      </c>
+      <c r="E15">
+        <v>0.9983991693162849</v>
+      </c>
+      <c r="F15">
+        <v>0.9903194987531403</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.001821833194464</v>
+      </c>
+      <c r="K15">
+        <v>1.002014232256941</v>
+      </c>
+      <c r="L15">
+        <v>1.002095036654132</v>
+      </c>
+      <c r="M15">
+        <v>0.994048020401492</v>
+      </c>
+      <c r="N15">
+        <v>1.00324453510817</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9978539071508835</v>
+      </c>
+      <c r="D16">
+        <v>1.000977265456049</v>
+      </c>
+      <c r="E16">
+        <v>1.000942563126828</v>
+      </c>
+      <c r="F16">
+        <v>0.9936500292551775</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.004444701276063</v>
+      </c>
+      <c r="K16">
+        <v>1.004544436072669</v>
+      </c>
+      <c r="L16">
+        <v>1.004509867203951</v>
+      </c>
+      <c r="M16">
+        <v>0.9972456091152013</v>
+      </c>
+      <c r="N16">
+        <v>1.005871127963293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9996385493853305</v>
+      </c>
+      <c r="D17">
+        <v>1.002630329070385</v>
+      </c>
+      <c r="E17">
+        <v>1.002523450614043</v>
+      </c>
+      <c r="F17">
+        <v>0.9957214316097828</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.006074775861689</v>
+      </c>
+      <c r="K17">
+        <v>1.006116742920379</v>
+      </c>
+      <c r="L17">
+        <v>1.006010264912952</v>
+      </c>
+      <c r="M17">
+        <v>0.9992339274739919</v>
+      </c>
+      <c r="N17">
+        <v>1.007503517441802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1.000673941663351</v>
+      </c>
+      <c r="D18">
+        <v>1.003589271285232</v>
+      </c>
+      <c r="E18">
+        <v>1.003440461157831</v>
+      </c>
+      <c r="F18">
+        <v>0.9969234303954658</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.007020243485814</v>
+      </c>
+      <c r="K18">
+        <v>1.007028639814518</v>
+      </c>
+      <c r="L18">
+        <v>1.006880378696345</v>
+      </c>
+      <c r="M18">
+        <v>1.000387569333965</v>
+      </c>
+      <c r="N18">
+        <v>1.008450327738401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1.00102605501855</v>
+      </c>
+      <c r="D19">
+        <v>1.003915366548564</v>
+      </c>
+      <c r="E19">
+        <v>1.00375228662662</v>
+      </c>
+      <c r="F19">
+        <v>0.997332243551711</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.007341733197906</v>
+      </c>
+      <c r="K19">
+        <v>1.007338703396833</v>
+      </c>
+      <c r="L19">
+        <v>1.007176221945658</v>
+      </c>
+      <c r="M19">
+        <v>1.000779911207237</v>
+      </c>
+      <c r="N19">
+        <v>1.008772274002759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9994476526168115</v>
+      </c>
+      <c r="D20">
+        <v>1.002453518414832</v>
+      </c>
+      <c r="E20">
+        <v>1.002354366315747</v>
+      </c>
+      <c r="F20">
+        <v>0.9954998366333733</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.005900438494341</v>
+      </c>
+      <c r="K20">
+        <v>1.005948590529477</v>
+      </c>
+      <c r="L20">
+        <v>1.005849810980916</v>
+      </c>
+      <c r="M20">
+        <v>0.9990212356752756</v>
+      </c>
+      <c r="N20">
+        <v>1.007328932495396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9942496847689102</v>
+      </c>
+      <c r="D21">
+        <v>0.9976380573341408</v>
+      </c>
+      <c r="E21">
+        <v>0.9977487528876581</v>
+      </c>
+      <c r="F21">
+        <v>0.9894681749992748</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.001151025736643</v>
+      </c>
+      <c r="K21">
+        <v>1.001367068845473</v>
+      </c>
+      <c r="L21">
+        <v>1.001477316485573</v>
+      </c>
+      <c r="M21">
+        <v>0.9932305532751564</v>
+      </c>
+      <c r="N21">
+        <v>1.002572775026816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.9909280488343498</v>
+      </c>
+      <c r="D22">
+        <v>0.9945598499968389</v>
+      </c>
+      <c r="E22">
+        <v>0.9948041307649597</v>
+      </c>
+      <c r="F22">
+        <v>0.9856158552573224</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9981137454279885</v>
+      </c>
+      <c r="K22">
+        <v>0.9984365732416526</v>
+      </c>
+      <c r="L22">
+        <v>0.9986798203174028</v>
+      </c>
+      <c r="M22">
+        <v>0.9895308206519607</v>
+      </c>
+      <c r="N22">
+        <v>0.999531181431743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.9926941487937653</v>
+      </c>
+      <c r="D23">
+        <v>0.9961966133724165</v>
+      </c>
+      <c r="E23">
+        <v>0.9963699152088057</v>
+      </c>
+      <c r="F23">
+        <v>0.9876639277324809</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9997288700268826</v>
+      </c>
+      <c r="K23">
+        <v>0.9999949678198973</v>
+      </c>
+      <c r="L23">
+        <v>1.000167553393249</v>
+      </c>
+      <c r="M23">
+        <v>0.9914978953822963</v>
+      </c>
+      <c r="N23">
+        <v>1.001148599692825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.9995339277947604</v>
+      </c>
+      <c r="D24">
+        <v>1.00253342776781</v>
+      </c>
+      <c r="E24">
+        <v>1.002430783944416</v>
+      </c>
+      <c r="F24">
+        <v>0.9955999850305814</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.005979230477044</v>
+      </c>
+      <c r="K24">
+        <v>1.006024587404777</v>
+      </c>
+      <c r="L24">
+        <v>1.005922328760086</v>
+      </c>
+      <c r="M24">
+        <v>0.9991173607879151</v>
+      </c>
+      <c r="N24">
+        <v>1.007407836371752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.007254528276289</v>
+      </c>
+      <c r="D25">
+        <v>1.009681926092496</v>
+      </c>
+      <c r="E25">
+        <v>1.009265570545499</v>
+      </c>
+      <c r="F25">
+        <v>1.004567291382602</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.013024839306305</v>
+      </c>
+      <c r="K25">
+        <v>1.012818864662966</v>
+      </c>
+      <c r="L25">
+        <v>1.012403893511628</v>
+      </c>
+      <c r="M25">
+        <v>1.00772132361435</v>
+      </c>
+      <c r="N25">
+        <v>1.014463450773692</v>
       </c>
     </row>
   </sheetData>
